--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Github-Version-Control-Projects\BioHEART-Biological-Age\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0BCE7C-B3FF-45E6-AC4C-BE6CB5E9158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7B7C3-E760-4218-BD43-4E7A4796553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{61170B8E-1FAD-45B1-BA80-532F8AFBDCEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{61170B8E-1FAD-45B1-BA80-532F8AFBDCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Omics" sheetId="1" r:id="rId1"/>
-    <sheet name="Multi-Omics" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="Multi-Omics" sheetId="3" r:id="rId3"/>
     <sheet name="R2 Scores" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
   <si>
     <t>Elastic Regression</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Training (N)</t>
   </si>
   <si>
-    <t>Validation (N)</t>
-  </si>
-  <si>
     <t>DNAm (Hannum)</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Guided Auto Encoder</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>0.26*</t>
   </si>
   <si>
@@ -249,13 +243,91 @@
   </si>
   <si>
     <t>9.63 (8.78-10.36)</t>
+  </si>
+  <si>
+    <t>0.44 (0.34-0.54)</t>
+  </si>
+  <si>
+    <t>7.26 (6.6-7.95)</t>
+  </si>
+  <si>
+    <t>0.18 (0.1-0.26)</t>
+  </si>
+  <si>
+    <t>9.88 (9.14-10.69)</t>
+  </si>
+  <si>
+    <t>Test (N)</t>
+  </si>
+  <si>
+    <t>Feature Set (n)</t>
+  </si>
+  <si>
+    <t>0.52 (0.45-0.6)</t>
+  </si>
+  <si>
+    <t>6.85 (6.27-7.44)</t>
+  </si>
+  <si>
+    <t>0.47 (0.37-0.56)</t>
+  </si>
+  <si>
+    <t>7.11 (6.47-7.77)</t>
+  </si>
+  <si>
+    <t>0.09 (0.04-0.15)</t>
+  </si>
+  <si>
+    <t>9.53 (8.8-10.26)</t>
+  </si>
+  <si>
+    <t>Autoencoder Regression</t>
+  </si>
+  <si>
+    <t>Lipidomics Totals</t>
+  </si>
+  <si>
+    <t>0.3 (0.21-0.4)</t>
+  </si>
+  <si>
+    <t>8.39 (7.62-9.14)</t>
+  </si>
+  <si>
+    <t>0.6 (0.53-0.68)</t>
+  </si>
+  <si>
+    <t>5.83 (5.26-6.39)</t>
+  </si>
+  <si>
+    <t>0.52 (0.43-0.61)</t>
+  </si>
+  <si>
+    <t>7.07 (6.35-7.68)</t>
+  </si>
+  <si>
+    <t>0.13 (-0.07-0.36)</t>
+  </si>
+  <si>
+    <t>10.2 (8.04-12.46)</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +356,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +404,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -344,7 +452,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -373,9 +481,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -700,19 +825,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EDF993-8474-4B97-8A22-13E91930029D}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" activeCellId="1" sqref="E7 K20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="11" width="16.7109375" customWidth="1"/>
+    <col min="1" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="9" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -734,8 +860,12 @@
         <v>4</v>
       </c>
       <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -767,8 +897,14 @@
       <c r="K2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -785,135 +921,190 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,6 +1113,524 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F847401-2024-4AB0-8375-1289366218B3}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P6" sqref="P5:P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="6" width="23" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>692</v>
+      </c>
+      <c r="C3" s="4">
+        <v>482</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2817</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2239</v>
+      </c>
+      <c r="F3" s="4">
+        <v>800</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="14">
+        <v>692</v>
+      </c>
+      <c r="K3" s="14">
+        <v>482</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2817</v>
+      </c>
+      <c r="M3" s="14">
+        <v>2239</v>
+      </c>
+      <c r="N3" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="4">
+        <v>297</v>
+      </c>
+      <c r="C4" s="4">
+        <v>174</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1446</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2144</v>
+      </c>
+      <c r="F4" s="4">
+        <v>201</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="14">
+        <v>297</v>
+      </c>
+      <c r="K4" s="14">
+        <v>174</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1446</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2144</v>
+      </c>
+      <c r="N4" s="14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4">
+        <v>360</v>
+      </c>
+      <c r="C5" s="11">
+        <v>485577</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2925</v>
+      </c>
+      <c r="E5" s="11">
+        <v>28941</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="14">
+        <v>360</v>
+      </c>
+      <c r="K5" s="15">
+        <v>485577</v>
+      </c>
+      <c r="L5" s="15">
+        <v>2925</v>
+      </c>
+      <c r="M5" s="15">
+        <v>28941</v>
+      </c>
+      <c r="N5" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>251</v>
+      </c>
+      <c r="C6" s="4">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4">
+        <v>373</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1311</v>
+      </c>
+      <c r="F6" s="4">
+        <v>50</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="14">
+        <v>251</v>
+      </c>
+      <c r="K6" s="14">
+        <v>71</v>
+      </c>
+      <c r="L6" s="14">
+        <v>373</v>
+      </c>
+      <c r="M6" s="14">
+        <v>1311</v>
+      </c>
+      <c r="N6" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="14">
+        <v>3.71</v>
+      </c>
+      <c r="N8" s="14">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.33</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="I9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="14">
+        <v>8.33</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="14">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="14">
+        <v>692</v>
+      </c>
+      <c r="C13" s="14">
+        <v>482</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2817</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2239</v>
+      </c>
+      <c r="F13" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="14">
+        <v>297</v>
+      </c>
+      <c r="C14" s="14">
+        <v>174</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1446</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2144</v>
+      </c>
+      <c r="F14" s="14">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="14">
+        <v>360</v>
+      </c>
+      <c r="C15" s="15">
+        <v>485577</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2925</v>
+      </c>
+      <c r="E15" s="15">
+        <v>28941</v>
+      </c>
+      <c r="F15" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="14">
+        <v>251</v>
+      </c>
+      <c r="C16" s="14">
+        <v>71</v>
+      </c>
+      <c r="D16" s="14">
+        <v>373</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1311</v>
+      </c>
+      <c r="F16" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14">
+        <v>3.71</v>
+      </c>
+      <c r="F18" s="14">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14">
+        <v>8.33</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="14">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE4328D-E1FD-410F-B630-C3422E78150F}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -936,12 +1645,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -958,177 +1667,11 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F847401-2024-4AB0-8375-1289366218B3}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="6" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4">
-        <v>692</v>
-      </c>
-      <c r="C3" s="4">
-        <v>482</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2817</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2239</v>
-      </c>
-      <c r="F3" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4">
-        <v>297</v>
-      </c>
-      <c r="C4" s="4">
-        <v>174</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1446</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2144</v>
-      </c>
-      <c r="F4" s="4">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4">
-        <v>251</v>
-      </c>
-      <c r="C5" s="4">
-        <v>71</v>
-      </c>
-      <c r="D5" s="4">
-        <v>373</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1311</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="F7" s="4">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4">
-        <v>8.33</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,15 +1680,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAADFB75-CB87-4439-A0F6-C1609B5E2EAD}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1171,26 +1717,31 @@
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>5</v>
@@ -1206,8 +1757,17 @@
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="T2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1249,8 +1809,21 @@
       <c r="O3" s="4">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1292,8 +1865,21 @@
       <c r="O4" s="4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1335,8 +1921,21 @@
       <c r="O5" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1378,10 +1977,23 @@
       <c r="O6" s="4">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="4">
         <v>0.59</v>
@@ -1393,41 +2005,66 @@
         <v>0.66</v>
       </c>
       <c r="E7" s="4">
-        <v>6.1</v>
+        <v>0.03</v>
       </c>
       <c r="F7" s="4">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>6.58</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.54</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1444,68 +2081,68 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>0.12</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13">
         <v>0.05</v>
       </c>
       <c r="E13">
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>0.32</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>0.24</v>
       </c>
       <c r="E14">
         <v>0.39</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>0.27</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15">
         <v>0.02</v>
       </c>
       <c r="E15">
         <v>0.54</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>0.59</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16">
         <v>0.54</v>
       </c>
       <c r="E16">
@@ -1516,13 +2153,13 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
         <v>0.08</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17">
         <v>0.02</v>
       </c>
       <c r="E17">
@@ -1533,13 +2170,13 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
         <v>0.01</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18">
         <v>0.01</v>
       </c>
       <c r="E18">
@@ -1550,8 +2187,8 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>60</v>
+      <c r="B19" t="s">
+        <v>58</v>
       </c>
       <c r="C19">
         <v>0.09</v>
@@ -1567,8 +2204,8 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>60</v>
+      <c r="B20" t="s">
+        <v>58</v>
       </c>
       <c r="C20">
         <v>0.08</v>
@@ -1582,19 +2219,19 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
       <c r="C21">
-        <v>6.1</v>
+        <v>0.03</v>
       </c>
       <c r="D21">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>6.58</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1667,10 +2304,19 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.44</v>
+      </c>
+      <c r="D26">
+        <v>0.34</v>
+      </c>
+      <c r="E26">
+        <v>0.54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1678,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>0.12</v>
@@ -1695,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>0.09</v>
@@ -1712,7 +2358,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>0.03</v>
@@ -1729,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>0.01</v>
@@ -1743,10 +2389,104 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>0.18</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32">
+        <v>0.47</v>
+      </c>
+      <c r="D32">
+        <v>0.37</v>
+      </c>
+      <c r="E32">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>0.09</v>
+      </c>
+      <c r="D33">
+        <v>0.04</v>
+      </c>
+      <c r="E33">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <v>0.3</v>
+      </c>
+      <c r="D34">
+        <v>0.21</v>
+      </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35">
+        <v>0.13</v>
+      </c>
+      <c r="D35">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36">
+        <v>0.52</v>
+      </c>
+      <c r="D36">
+        <v>0.45</v>
+      </c>
+      <c r="E36">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
